--- a/sampledata/sample_other_reagent_batches.xlsx
+++ b/sampledata/sample_other_reagent_batches.xlsx
@@ -260,7 +260,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/sampledata/sample_other_reagent_batches.xlsx
+++ b/sampledata/sample_other_reagent_batches.xlsx
@@ -5,17 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>facility_id</t>
   </si>
@@ -44,6 +49,9 @@
     <t>Most Recent Update</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>90001</t>
   </si>
   <si>
@@ -65,6 +73,9 @@
     <t>2014-02-07</t>
   </si>
   <si>
+    <t>ORB test comment 1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -77,6 +88,9 @@
     <t>113</t>
   </si>
   <si>
+    <t>ORB test comment 2</t>
+  </si>
+  <si>
     <t>90002</t>
   </si>
   <si>
@@ -92,6 +106,9 @@
     <t>43</t>
   </si>
   <si>
+    <t>ORB test comment 3</t>
+  </si>
+  <si>
     <t>90003</t>
   </si>
   <si>
@@ -102,6 +119,9 @@
   </si>
   <si>
     <t>22</t>
+  </si>
+  <si>
+    <t>ORB test comment 4</t>
   </si>
 </sst>
 </file>
@@ -191,7 +211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,6 +234,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -253,25 +277,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.70408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.219387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.8367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.8367346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,98 +337,113 @@
       <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7" t="n">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="0"/>
+      <c r="J4" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="0"/>
+      <c r="J5" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="0"/>
+      <c r="J6" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
